--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1314,10 +1326,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1361,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1407,28 +1419,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1516,10 +1528,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1563,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1609,28 +1621,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1718,10 +1730,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1765,28 +1777,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1811,28 +1823,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1920,10 +1932,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1967,28 +1979,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2013,28 +2025,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2238,10 +2250,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2285,28 +2297,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2331,28 +2343,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2498,10 +2510,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" s="2" t="s">
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2545,28 +2557,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s" s="2">
+      <c r="C84" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2591,28 +2603,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2700,10 +2712,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2747,28 +2759,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2793,28 +2805,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2931,10 +2943,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2978,28 +2990,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3024,28 +3036,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3133,10 +3145,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3180,28 +3192,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3226,28 +3238,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3451,10 +3463,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3498,28 +3510,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3544,28 +3556,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3653,10 +3665,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3700,28 +3712,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3746,28 +3758,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3855,10 +3867,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3902,28 +3914,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3948,28 +3960,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4057,10 +4069,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4104,28 +4116,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4150,28 +4162,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4259,10 +4271,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4306,28 +4318,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4352,28 +4364,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4490,10 +4502,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4537,28 +4549,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4583,28 +4595,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4721,10 +4733,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4768,28 +4780,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4814,28 +4826,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4952,10 +4964,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -4999,28 +5011,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5045,28 +5057,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5154,10 +5166,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5201,28 +5213,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5247,28 +5259,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5530,10 +5542,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5577,28 +5589,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5623,28 +5635,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5732,10 +5744,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5779,28 +5791,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5825,28 +5837,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6021,10 +6033,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6068,28 +6080,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6114,28 +6126,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6194,10 +6206,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6241,28 +6253,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6287,28 +6299,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6367,10 +6379,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6414,28 +6426,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6460,28 +6472,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6569,10 +6581,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6616,28 +6628,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6662,28 +6674,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6742,10 +6754,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6789,28 +6801,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6835,28 +6847,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6944,10 +6956,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6991,28 +7003,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7037,28 +7049,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7117,10 +7129,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7164,28 +7176,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7210,28 +7222,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7377,10 +7389,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7424,28 +7436,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7470,28 +7482,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7695,10 +7707,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7742,28 +7754,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7788,28 +7800,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7955,10 +7967,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
